--- a/SpringBootJwtAuthentication/target/classes/com/grokonez/jwtauthentication/fileLibro1.xlsx
+++ b/SpringBootJwtAuthentication/target/classes/com/grokonez/jwtauthentication/fileLibro1.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +445,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
